--- a/data/trans_orig/P36BPD04_R2_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD04_R2_2023-Provincia-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>16835</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10037</v>
+        <v>10553</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>25109</v>
+        <v>25968</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.05279988915248652</v>
+        <v>0.05279988915248653</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03148072516959574</v>
+        <v>0.03309657223853086</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07875097763735907</v>
+        <v>0.08144431211222329</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>35</v>
@@ -762,19 +762,19 @@
         <v>17580</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>12594</v>
+        <v>12119</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>23903</v>
+        <v>23705</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05562305476066964</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03984581001221347</v>
+        <v>0.03834492402530971</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07562776738698787</v>
+        <v>0.07500100916919365</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>55</v>
@@ -783,19 +783,19 @@
         <v>34415</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>25941</v>
+        <v>26030</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>44660</v>
+        <v>45479</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05420528088616004</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04085810259067783</v>
+        <v>0.04099839159768429</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07034166080598191</v>
+        <v>0.07163046635963459</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>302010</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>293736</v>
+        <v>292877</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>308808</v>
+        <v>308292</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9472001108475134</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9212490223626412</v>
+        <v>0.9185556878877777</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9685192748304047</v>
+        <v>0.9669034277614698</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>503</v>
@@ -833,19 +833,19 @@
         <v>298481</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>292158</v>
+        <v>292356</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>303467</v>
+        <v>303942</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9443769452393302</v>
+        <v>0.9443769452393305</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9243722326130122</v>
+        <v>0.9249989908308064</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9601541899877865</v>
+        <v>0.9616550759746904</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>814</v>
@@ -854,19 +854,19 @@
         <v>600491</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>590246</v>
+        <v>589427</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>608965</v>
+        <v>608876</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9457947191138401</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9296583391940181</v>
+        <v>0.9283695336403653</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9591418974093223</v>
+        <v>0.9590016084023157</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>26031</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>16303</v>
+        <v>16134</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>39392</v>
+        <v>40141</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.0490558093126921</v>
+        <v>0.04905580931269209</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03072316581551138</v>
+        <v>0.03040348212235322</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07423365309323711</v>
+        <v>0.07564495752306799</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>40</v>
@@ -979,19 +979,19 @@
         <v>29152</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>21548</v>
+        <v>21009</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>41608</v>
+        <v>40424</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05334314239775832</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03942883016233328</v>
+        <v>0.03844320156317781</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07613630155253069</v>
+        <v>0.07396975149707952</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>61</v>
@@ -1000,19 +1000,19 @@
         <v>55183</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>42634</v>
+        <v>42366</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>72013</v>
+        <v>72509</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.05123101434608066</v>
+        <v>0.05123101434608065</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0395809305510161</v>
+        <v>0.03933195157742849</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06685534056431323</v>
+        <v>0.06731599445600144</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>504616</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>491255</v>
+        <v>490506</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>514344</v>
+        <v>514513</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9509441906873078</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9257663469067607</v>
+        <v>0.9243550424769319</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9692768341844878</v>
+        <v>0.9695965178776467</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>677</v>
@@ -1050,19 +1050,19 @@
         <v>517342</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>504886</v>
+        <v>506070</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>524946</v>
+        <v>525485</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9466568576022417</v>
+        <v>0.9466568576022416</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9238636984474693</v>
+        <v>0.9260302485029206</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9605711698376671</v>
+        <v>0.9615567984368224</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1038</v>
@@ -1071,19 +1071,19 @@
         <v>1021958</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1005128</v>
+        <v>1004632</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1034507</v>
+        <v>1034775</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9487689856539193</v>
+        <v>0.9487689856539194</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9331446594356873</v>
+        <v>0.932684005543999</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9604190694489839</v>
+        <v>0.9606680484225715</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>64626</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>52326</v>
+        <v>52357</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>80038</v>
+        <v>78412</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2045157026203837</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1655909042909596</v>
+        <v>0.1656916813388655</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2532898331156219</v>
+        <v>0.2481436994119799</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>150</v>
@@ -1196,19 +1196,19 @@
         <v>95351</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>80781</v>
+        <v>83588</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>107709</v>
+        <v>109044</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2699628824927208</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2287129613120574</v>
+        <v>0.2366591240252534</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3049513431610215</v>
+        <v>0.3087329359992291</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>229</v>
@@ -1217,19 +1217,19 @@
         <v>159976</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>141461</v>
+        <v>139525</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>179518</v>
+        <v>179049</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2390586516248006</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2113911964258175</v>
+        <v>0.2084971354373376</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.268260762004208</v>
+        <v>0.2675596730746868</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>251367</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>235955</v>
+        <v>237581</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>263667</v>
+        <v>263636</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7954842973796163</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7467101668843781</v>
+        <v>0.75185630058802</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8344090957090401</v>
+        <v>0.8343083186611345</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>380</v>
@@ -1267,19 +1267,19 @@
         <v>257848</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>245490</v>
+        <v>244155</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>272418</v>
+        <v>269611</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7300371175072792</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6950486568389784</v>
+        <v>0.6912670640007709</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7712870386879427</v>
+        <v>0.7633408759747466</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>661</v>
@@ -1288,19 +1288,19 @@
         <v>509216</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>489674</v>
+        <v>490143</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>527731</v>
+        <v>529667</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.7609413483751993</v>
+        <v>0.7609413483751994</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.731739237995792</v>
+        <v>0.7324403269253132</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7886088035741826</v>
+        <v>0.7915028645626627</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>169543</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>145485</v>
+        <v>144728</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>197488</v>
+        <v>195140</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4543623719740061</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3898897718098795</v>
+        <v>0.3878611960833535</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5292522649634352</v>
+        <v>0.522960940007769</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>224</v>
@@ -1413,19 +1413,19 @@
         <v>159296</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>139387</v>
+        <v>140256</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>178727</v>
+        <v>178756</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.3775124467258331</v>
+        <v>0.3775124467258332</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3303316087286153</v>
+        <v>0.3323920486996066</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4235627022135076</v>
+        <v>0.4236319880182959</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>334</v>
@@ -1434,19 +1434,19 @@
         <v>328839</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>294964</v>
+        <v>296924</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>361169</v>
+        <v>360437</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.4135782793177124</v>
+        <v>0.4135782793177125</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3709734685886841</v>
+        <v>0.3734396095073974</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.454239203091624</v>
+        <v>0.453318415281567</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>203602</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>175657</v>
+        <v>178005</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>227660</v>
+        <v>228417</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5456376280259939</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4707477350365646</v>
+        <v>0.4770390599922308</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6101102281901205</v>
+        <v>0.6121388039166464</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>375</v>
@@ -1484,19 +1484,19 @@
         <v>262665</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>243234</v>
+        <v>243205</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>282574</v>
+        <v>281705</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.6224875532741668</v>
+        <v>0.6224875532741669</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5764372977864923</v>
+        <v>0.576368011981704</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6696683912713847</v>
+        <v>0.6676079513003932</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>557</v>
@@ -1505,19 +1505,19 @@
         <v>466268</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>433938</v>
+        <v>434670</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>500143</v>
+        <v>498183</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.5864217206822875</v>
+        <v>0.5864217206822874</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5457607969083759</v>
+        <v>0.546681584718433</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6290265314113156</v>
+        <v>0.6265603904926024</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>60729</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>48422</v>
+        <v>50713</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>72794</v>
+        <v>74235</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2952828349694923</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2354404910862443</v>
+        <v>0.2465813059112228</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3539456885977912</v>
+        <v>0.3609490126217196</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>175</v>
@@ -1630,19 +1630,19 @@
         <v>85371</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>75496</v>
+        <v>75085</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>97793</v>
+        <v>96268</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3763768310633235</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3328424117216504</v>
+        <v>0.3310297197154424</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.431140723085719</v>
+        <v>0.4244201258801006</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>256</v>
@@ -1651,19 +1651,19 @@
         <v>146100</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>130374</v>
+        <v>130835</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>163087</v>
+        <v>162953</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3378135129413737</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3014519548180157</v>
+        <v>0.3025163567190574</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.377089236588839</v>
+        <v>0.3767797794878967</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>144936</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>132871</v>
+        <v>131430</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>157243</v>
+        <v>154952</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7047171650305076</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6460543114022088</v>
+        <v>0.6390509873782806</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7645595089137558</v>
+        <v>0.7534186940887774</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>316</v>
@@ -1701,19 +1701,19 @@
         <v>141452</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>129030</v>
+        <v>130555</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>151327</v>
+        <v>151738</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.6236231689366765</v>
+        <v>0.6236231689366764</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5688592769142813</v>
+        <v>0.5755798741198994</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6671575882783497</v>
+        <v>0.6689702802845575</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>514</v>
@@ -1722,19 +1722,19 @@
         <v>286388</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>269401</v>
+        <v>269535</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>302114</v>
+        <v>301653</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6621864870586264</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.622910763411161</v>
+        <v>0.6232202205121035</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6985480451819844</v>
+        <v>0.6974836432809427</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>31824</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>24062</v>
+        <v>24474</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>41049</v>
+        <v>41904</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1175583315186341</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.08888605916962827</v>
+        <v>0.09040703794481213</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1516366497131473</v>
+        <v>0.1547939971001117</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>70</v>
@@ -1847,19 +1847,19 @@
         <v>33610</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>25810</v>
+        <v>26351</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>42035</v>
+        <v>42490</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1274300865090553</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09785696026206157</v>
+        <v>0.09990770552917792</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1593729950870363</v>
+        <v>0.1610994395223898</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>126</v>
@@ -1868,19 +1868,19 @@
         <v>65434</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>54828</v>
+        <v>54035</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>77362</v>
+        <v>77243</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1224299618636688</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1025863116970577</v>
+        <v>0.1011032784215702</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1447487984320359</v>
+        <v>0.1445253581854962</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>238883</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>229658</v>
+        <v>228803</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>246645</v>
+        <v>246233</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.882441668481366</v>
+        <v>0.8824416684813657</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8483633502868527</v>
+        <v>0.8452060028998882</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9111139408303717</v>
+        <v>0.9095929620551879</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>390</v>
@@ -1918,19 +1918,19 @@
         <v>230140</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>221715</v>
+        <v>221260</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>237940</v>
+        <v>237399</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8725699134909449</v>
+        <v>0.8725699134909445</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.840627004912964</v>
+        <v>0.8389005604776104</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9021430397379385</v>
+        <v>0.9000922944708222</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>705</v>
@@ -1939,19 +1939,19 @@
         <v>469023</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>457095</v>
+        <v>457214</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>479629</v>
+        <v>480422</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8775700381363312</v>
+        <v>0.8775700381363313</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8552512015679641</v>
+        <v>0.8554746418145037</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8974136883029421</v>
+        <v>0.8988967215784297</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>247604</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>215964</v>
+        <v>218377</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>275966</v>
+        <v>279886</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3450990460105863</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3010004556715521</v>
+        <v>0.3043642550943657</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.384628688301247</v>
+        <v>0.3900919994821058</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>322</v>
@@ -2064,19 +2064,19 @@
         <v>250456</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>226851</v>
+        <v>225190</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>276267</v>
+        <v>275711</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3244007146187342</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2938264603374873</v>
+        <v>0.2916747378244375</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.357833015147057</v>
+        <v>0.3571121765501808</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>533</v>
@@ -2085,19 +2085,19 @@
         <v>498060</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>459471</v>
+        <v>461953</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>537357</v>
+        <v>536827</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3343707391568654</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3084638913303699</v>
+        <v>0.3101302981205781</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3607526269732828</v>
+        <v>0.3603970581886535</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>469883</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>441521</v>
+        <v>437601</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>501523</v>
+        <v>499110</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.6549009539894137</v>
+        <v>0.6549009539894136</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6153713116987533</v>
+        <v>0.6099080005178942</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6989995443284478</v>
+        <v>0.6956357449056342</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>638</v>
@@ -2135,19 +2135,19 @@
         <v>521601</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>495790</v>
+        <v>496346</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>545206</v>
+        <v>546867</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6755992853812658</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6421669848529425</v>
+        <v>0.6428878234498192</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7061735396625128</v>
+        <v>0.7083252621755626</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1024</v>
@@ -2156,19 +2156,19 @@
         <v>991484</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>952187</v>
+        <v>952717</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1030073</v>
+        <v>1027591</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6656292608431347</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6392473730267172</v>
+        <v>0.6396029418113462</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6915361086696301</v>
+        <v>0.6898697018794218</v>
       </c>
     </row>
     <row r="24">
@@ -2260,19 +2260,19 @@
         <v>110530</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>92160</v>
+        <v>92418</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>132218</v>
+        <v>133622</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1384964647338458</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1154779085931819</v>
+        <v>0.1158018125664606</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1656715277555668</v>
+        <v>0.1674315827024789</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>134</v>
@@ -2281,19 +2281,19 @@
         <v>101461</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>87080</v>
+        <v>86384</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>120637</v>
+        <v>121482</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1220467364237283</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1047472733171089</v>
+        <v>0.1039108369478824</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1451126618574249</v>
+        <v>0.1461292499964655</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>238</v>
@@ -2302,19 +2302,19 @@
         <v>211991</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>184556</v>
+        <v>187651</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>237334</v>
+        <v>240665</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1301037137810902</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1132660675547517</v>
+        <v>0.1151655665048086</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1456568994878665</v>
+        <v>0.1477010521265772</v>
       </c>
     </row>
     <row r="26">
@@ -2331,19 +2331,19 @@
         <v>687542</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>665854</v>
+        <v>664450</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>705912</v>
+        <v>705654</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8615035352661542</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8343284722444332</v>
+        <v>0.8325684172975211</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8845220914068179</v>
+        <v>0.8841981874335393</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>928</v>
@@ -2352,19 +2352,19 @@
         <v>729870</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>710694</v>
+        <v>709849</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>744251</v>
+        <v>744947</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.8779532635762717</v>
+        <v>0.8779532635762718</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8548873381425751</v>
+        <v>0.8538707500035349</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.895252726682891</v>
+        <v>0.8960891630521181</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1586</v>
@@ -2373,19 +2373,19 @@
         <v>1417412</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1392069</v>
+        <v>1388738</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1444847</v>
+        <v>1441752</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8698962862189098</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8543431005121337</v>
+        <v>0.852298947873423</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8867339324452483</v>
+        <v>0.8848344334951914</v>
       </c>
     </row>
     <row r="27">
@@ -2477,19 +2477,19 @@
         <v>727723</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>671318</v>
+        <v>675755</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>783417</v>
+        <v>785348</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2061208803196773</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.190144816986225</v>
+        <v>0.1914016541955485</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2218957362318749</v>
+        <v>0.222442671753713</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1150</v>
@@ -2498,19 +2498,19 @@
         <v>772276</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>731846</v>
+        <v>729781</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>817742</v>
+        <v>811745</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2069514720419991</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1961171684420914</v>
+        <v>0.1955637911400777</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2191352933495407</v>
+        <v>0.2175282051608514</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1832</v>
@@ -2519,19 +2519,19 @@
         <v>1499999</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1433433</v>
+        <v>1438813</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1575715</v>
+        <v>1580721</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.206547677091408</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1973816821303135</v>
+        <v>0.198122545278084</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2169737425069609</v>
+        <v>0.2176630712269832</v>
       </c>
     </row>
     <row r="29">
@@ -2548,19 +2548,19 @@
         <v>2802839</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2747145</v>
+        <v>2745214</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2859244</v>
+        <v>2854807</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.7938791196803228</v>
+        <v>0.7938791196803227</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7781042637681251</v>
+        <v>0.777557328246287</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8098551830137741</v>
+        <v>0.8085983458044518</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4207</v>
@@ -2569,19 +2569,19 @@
         <v>2959402</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2913936</v>
+        <v>2919933</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2999832</v>
+        <v>3001897</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.7930485279580008</v>
+        <v>0.793048527958001</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7808647066504594</v>
+        <v>0.7824717948391485</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8038828315579082</v>
+        <v>0.8044362088599222</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6899</v>
@@ -2590,19 +2590,19 @@
         <v>5762241</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5686525</v>
+        <v>5681519</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5828807</v>
+        <v>5823427</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.7934523229085921</v>
+        <v>0.793452322908592</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7830262574930388</v>
+        <v>0.7823369287730169</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8026183178696865</v>
+        <v>0.8018774547219158</v>
       </c>
     </row>
     <row r="30">
